--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -13,8 +13,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time consuming and difficult to handle multiple features</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Canada</t>
   </si>
@@ -46,14 +80,23 @@
     <t>Multivariate using VAR</t>
   </si>
   <si>
-    <t>Prophet</t>
+    <t>Univariate using Prophet</t>
+  </si>
+  <si>
+    <t>Shresth</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Pradeep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +104,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,12 +162,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,65 +517,89 @@
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>9.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -19,7 +19,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -27,7 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -36,10 +36,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time consuming and difficult to handle multiple features</t>
+Adjusted after using actual unemployment rate</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Canada</t>
   </si>
@@ -83,31 +83,23 @@
     <t>Univariate using Prophet</t>
   </si>
   <si>
-    <t>Shresth</t>
-  </si>
-  <si>
     <t>Ankit</t>
   </si>
   <si>
-    <t>Pradeep</t>
+    <t>Shresth/Pradeep</t>
+  </si>
+  <si>
+    <t>Ankit/Pradeep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,17 +116,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,12 +136,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,13 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +493,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +513,7 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -540,27 +525,27 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>9.3299999999999994E-2</v>
+        <v>0.10808</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0.11700000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0.13956399999999999</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>9.8299999999999998E-2</v>
@@ -570,31 +555,43 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>0.16039700000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>8.4220000000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0.111939</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.14000000000000001</v>
+        <v>6.1232799999999997E-2</v>
       </c>
       <c r="C7">
-        <v>7.0000000000000007E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7.9339800000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -204,8 +204,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,106 +248,109 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.10808</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.117</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.1765</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.139564</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.0983</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.160397</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.08422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.111939</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.0612328</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.077</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.0793398</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.737</v>
       </c>
     </row>
   </sheetData>

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -249,7 +249,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,6 +314,9 @@
       <c r="B4" s="1" t="n">
         <v>0.160397</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>1.9688</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -248,8 +248,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -325,6 +325,9 @@
       <c r="B5" s="1" t="n">
         <v>0.08422</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>0.1846</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -333,6 +336,9 @@
       <c r="B6" s="1" t="n">
         <v>0.111939</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>0.4779</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -343,6 +349,9 @@
       </c>
       <c r="C7" s="1" t="n">
         <v>0.077</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.4308</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Multivariate using VAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Univariate using Prophet</t>
+    <t xml:space="preserve">Univariate using Prophet CV</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
@@ -249,7 +249,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +307,7 @@
         <v>0.0983</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -26,29 +26,7 @@
   </authors>
   <commentList>
     <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Adjusted after using actual unemployment rate</t>
-        </r>
-      </text>
+      <text/>
     </comment>
   </commentList>
 </comments>
@@ -103,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,13 +110,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -248,8 +219,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -366,6 +337,90 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -373,6 +428,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -17,19 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0">
-      <text/>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -220,7 +207,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Univariate using ARIMA</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multivariate using VAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univariate using NeuralProphet</t>
   </si>
   <si>
     <t xml:space="preserve">Univariate using Prophet CV</t>
@@ -204,22 +207,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="23.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -233,74 +236,80 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.10808</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.117</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.1765</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.139564</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="n">
+        <v>0.70349</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>0.0983</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.160397</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="F4" s="1" t="n">
         <v>1.9688</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.08422</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.1846</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.111939</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.4779</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.0612328</v>
@@ -308,23 +317,23 @@
       <c r="C7" s="1" t="n">
         <v>0.077</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.4308</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.0793398</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.737</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E2">
+  <conditionalFormatting sqref="B2:F2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -336,7 +345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E3">
+  <conditionalFormatting sqref="B3:F3">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -348,7 +357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:E4">
+  <conditionalFormatting sqref="B4:F4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -360,7 +369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E5">
+  <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -372,7 +381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:E6">
+  <conditionalFormatting sqref="B6:F6">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -384,7 +393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
+  <conditionalFormatting sqref="B7:F7">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -396,7 +405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:E8">
+  <conditionalFormatting sqref="B8:F8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -8,8 +8,17 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RMSE" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Prophet CV" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Prophet Base" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="NeuralProphet" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ARIMA" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="LSTM" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="VAR" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">RMSE!$A$1:$G$8</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
   <si>
     <t xml:space="preserve">Univariate using ARIMA</t>
   </si>
@@ -34,34 +46,61 @@
     <t xml:space="preserve">Univariate using NeuralProphet</t>
   </si>
   <si>
+    <t xml:space="preserve">Univariate using Prophet Base</t>
+  </si>
+  <si>
     <t xml:space="preserve">Univariate using Prophet CV</t>
   </si>
   <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit/Pradeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">Shresth/Pradeep</t>
   </si>
   <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankit/Pradeep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
     <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted Month for Prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
   </si>
 </sst>
 </file>
@@ -71,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,6 +136,19 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -165,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,7 +226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,11 +234,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,7 +267,119 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF81D41A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D917"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9CDD15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8BD718"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8DD818"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF8000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC3EA0D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9100"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5F009"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2F506"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC200"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -207,10 +387,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,124 +399,153 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.10808</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.1765</v>
+        <v>0.160397</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1.850288</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1.9688</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.139564</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.70349</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="5" t="n">
+        <v>0.258843</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0.0983</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.160397</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1.9688</v>
+        <v>0.08422</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.07215</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.1846</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.08422</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.1846</v>
+        <v>0.111939</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.603992</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.4779</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
+      <c r="A6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.111939</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.4779</v>
+        <v>0.0612328</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.249625</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.4308</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.0612328</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.4308</v>
+        <v>0.10808</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.285329</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.1765</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.0793398</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="5" t="n">
+        <v>2.035041</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>0.737</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F2">
+  <autoFilter ref="A1:G8"/>
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="0"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
@@ -345,11 +554,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
         <color rgb="FFFFFF00"/>
@@ -357,11 +566,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
+  <conditionalFormatting sqref="B4:G4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
         <color rgb="FFFFFF00"/>
@@ -369,11 +578,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5">
+  <conditionalFormatting sqref="B3:G3">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
         <color rgb="FFFFFF00"/>
@@ -381,11 +590,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:F6">
+  <conditionalFormatting sqref="B5:G5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
         <color rgb="FFFFFF00"/>
@@ -393,11 +602,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7">
+  <conditionalFormatting sqref="B7:G7">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
         <color rgb="FFFFFF00"/>
@@ -405,11 +614,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:F8">
+  <conditionalFormatting sqref="B6:G6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percent" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF81D41A"/>
         <color rgb="FFFFFF00"/>
@@ -424,5 +645,777 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>7.072981</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>8.051687</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>6.04784</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.9688</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>6.991768</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>7.241449</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>6.729585</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.0983</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>3.1088488</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>3.344162</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>2.851482</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.1846</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>8.14796</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>8.513808</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>7.817619</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.4779</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>2.008909</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>2.293228</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>2.013057</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.4308</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>3.385219</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>3.812343</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>2.973279</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.1765</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>4.166677</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>5.479863</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>2.856417</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.737</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6.948732</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5.424136</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>8.514531</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.850288</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.268157</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>6.600321</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7.874131</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.258843</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2.914958</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3.324068</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2.542403</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.07215</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>8.31146</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>8.834615</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7.776296</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.603992</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2.212238</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.638156</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1.782431</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.249625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3.202596</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>4.440137</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1.992653</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.285329</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>5.522781</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7.392238</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>7.392238</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2.035041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0.70349</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/results/Prediction_RMSE_comparison.xlsx
+++ b/results/Prediction_RMSE_comparison.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankit/Pradeep</t>
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
@@ -267,7 +264,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -307,14 +304,28 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFA3DF13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFB700"/>
+          <fgColor rgb="FF94DA17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF89D619"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8BD718"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E60F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -335,21 +346,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF83D41A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA6E013"/>
+          <fgColor rgb="FFFF9100"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFD00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -357,6 +361,34 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD5F009"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2F506"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC200"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8DD818"/>
         </patternFill>
       </fill>
     </dxf>
@@ -376,7 +408,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,6 +452,9 @@
       <c r="B2" s="1" t="n">
         <v>0.160397</v>
       </c>
+      <c r="C2" s="1" t="n">
+        <v>0.222352</v>
+      </c>
       <c r="E2" s="5" t="n">
         <v>1.850288</v>
       </c>
@@ -434,8 +469,8 @@
       <c r="B3" s="1" t="n">
         <v>0.139564</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="n">
+        <v>0.22929</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.70349</v>
@@ -449,11 +484,14 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.08422</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>0.230484</v>
+      </c>
       <c r="E4" s="5" t="n">
         <v>0.07215</v>
       </c>
@@ -463,7 +501,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.111939</v>
@@ -477,7 +515,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.0612328</v>
@@ -494,13 +532,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.10808</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.285329</v>
@@ -514,7 +552,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.0793398</v>
@@ -653,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +720,7 @@
         <v>6.04784</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1.9688</v>
@@ -702,7 +740,7 @@
         <v>6.729585</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.0983</v>
@@ -710,7 +748,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>3.1088488</v>
@@ -722,7 +760,7 @@
         <v>2.851482</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1846</v>
@@ -730,7 +768,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>8.14796</v>
@@ -742,7 +780,7 @@
         <v>7.817619</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.4779</v>
@@ -750,7 +788,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>2.008909</v>
@@ -762,7 +800,7 @@
         <v>2.013057</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.4308</v>
@@ -770,7 +808,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>3.385219</v>
@@ -782,7 +820,7 @@
         <v>2.973279</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1765</v>
@@ -790,7 +828,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>4.166677</v>
@@ -802,7 +840,7 @@
         <v>2.856417</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.737</v>
@@ -837,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +904,7 @@
         <v>8.514531</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1.850288</v>
@@ -886,7 +924,7 @@
         <v>7.874131</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.258843</v>
@@ -894,7 +932,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2.914958</v>
@@ -906,7 +944,7 @@
         <v>2.542403</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.07215</v>
@@ -914,7 +952,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>8.31146</v>
@@ -926,7 +964,7 @@
         <v>7.776296</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.603992</v>
@@ -934,7 +972,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2.212238</v>
@@ -946,7 +984,7 @@
         <v>1.782431</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.249625</v>
@@ -954,7 +992,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3.202596</v>
@@ -966,7 +1004,7 @@
         <v>1.992653</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.285329</v>
@@ -974,7 +1012,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5.522781</v>
@@ -986,7 +1024,7 @@
         <v>7.392238</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>2.035041</v>
@@ -1021,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>0.70349</v>
@@ -1057,42 +1095,42 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1124,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,47 +1190,47 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1224,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,47 +1290,47 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1324,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,47 +1390,47 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
